--- a/RUDN/Importance/Varible_muatal_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Middle Africa.xlsx
@@ -58,6 +58,9 @@
     <t>Female population 20-24</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>Male population 35-39</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
@@ -109,18 +109,21 @@
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, male</t>
   </si>
   <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -130,15 +133,12 @@
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
+    <t>Male population 70-74</t>
   </si>
   <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
@@ -148,18 +148,18 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
@@ -229,39 +229,39 @@
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
+    <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
@@ -277,67 +277,73 @@
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
+    <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 65-69</t>
   </si>
   <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
+    <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 08, female, interpolated</t>
@@ -346,60 +352,54 @@
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
@@ -448,36 +448,36 @@
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
+    <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
@@ -493,39 +493,39 @@
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Rural population</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Rural population</t>
+    <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -559,51 +559,51 @@
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+    <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
@@ -622,21 +622,21 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
@@ -646,12 +646,12 @@
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
@@ -718,45 +718,48 @@
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
@@ -790,9 +793,6 @@
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
@@ -820,12 +820,12 @@
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
@@ -838,24 +838,24 @@
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
@@ -934,10 +934,16 @@
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Sex ratio at birth (male births per female births)</t>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Prevalence of syphilis (% of women attending antenatal care)</t>
@@ -946,12 +952,6 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
@@ -964,15 +964,15 @@
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
@@ -1039,10 +1039,10 @@
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.473292710088177</v>
+        <v>1.471834984140655</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.455109212957418</v>
+        <v>1.452388124522044</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.452161367152429</v>
+        <v>1.452388124522044</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1507,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.373982839755148</v>
+        <v>1.373120465168283</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.315639447131982</v>
+        <v>1.314363936927901</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.310826896875215</v>
+        <v>1.309551386671133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.306696254470469</v>
+        <v>1.305420744266387</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.305297552936871</v>
+        <v>1.305021705311696</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.305170604690773</v>
+        <v>1.30402204273279</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.304212287596835</v>
+        <v>1.303895094486692</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.302300616876322</v>
+        <v>1.302936777392754</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.302220292598106</v>
+        <v>1.301263659945045</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.300932963920271</v>
+        <v>1.29965745371619</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.297776149816571</v>
+        <v>1.296500639612489</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.294912204761308</v>
+        <v>1.293636694557227</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.29356742332248</v>
+        <v>1.292291913118399</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.290102814681087</v>
+        <v>1.288827304477005</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.285456365899359</v>
+        <v>1.284180855695277</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.284945149476681</v>
+        <v>1.283669639272599</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.283997211869967</v>
+        <v>1.282721701665885</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.281887417503379</v>
+        <v>1.280611907299297</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.270527803718905</v>
+        <v>1.269252293514823</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.268095093539896</v>
+        <v>1.268945433675951</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.263994224135232</v>
+        <v>1.26271871393115</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.256618655322575</v>
+        <v>1.255888212301624</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.25599590185898</v>
+        <v>1.255343145118494</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.255888212301624</v>
+        <v>1.254720391654898</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.255379022955409</v>
+        <v>1.254103512751328</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.253817452095409</v>
+        <v>1.252545316622325</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.25289744952502</v>
+        <v>1.252541941891327</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.252672412626928</v>
+        <v>1.251621939320939</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.252545316622325</v>
+        <v>1.251396902422846</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.251321323210411</v>
+        <v>1.250721511692408</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.250721511692408</v>
+        <v>1.250045813006329</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.250539736024376</v>
+        <v>1.249264225820294</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.247042365057161</v>
+        <v>1.24576685485308</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.245201748407551</v>
+        <v>1.243926238203469</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.240917505716312</v>
+        <v>1.240074452315409</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.240140867938222</v>
+        <v>1.239641995512231</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.240074452315409</v>
+        <v>1.238898218924918</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.238898218924918</v>
+        <v>1.238865357734141</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.238510742370026</v>
+        <v>1.237235232165944</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.222134677307819</v>
+        <v>1.220859167103737</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.218689111742309</v>
+        <v>1.217413601538228</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.216563562215786</v>
+        <v>1.215288052011704</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.213479117134163</v>
+        <v>1.211874443006448</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.20734677881326</v>
+        <v>1.206071268609178</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.205113204555369</v>
+        <v>1.203655478607847</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.193553139890174</v>
+        <v>1.192277629686093</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.183563819935512</v>
+        <v>1.18228830973143</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.177701726784656</v>
+        <v>1.176426216580574</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.172651991162079</v>
+        <v>1.171376480957997</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.167251162815493</v>
+        <v>1.166457640495254</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.166457640495254</v>
+        <v>1.165975652611412</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.166006489337903</v>
+        <v>1.163587079751802</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.164862589955884</v>
+        <v>1.163374960535906</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.163763519935931</v>
+        <v>1.16248800973185</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.163274462085695</v>
+        <v>1.161998951881613</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.158368932990224</v>
+        <v>1.157093422786142</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.15811345823024</v>
+        <v>1.156837948026159</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.152664310605922</v>
+        <v>1.151853864993383</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.151853864993383</v>
+        <v>1.142760541883507</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.149681107041029</v>
+        <v>1.142303627487309</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.144036052087588</v>
+        <v>1.141708029158945</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.143579137691391</v>
+        <v>1.141586067736136</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.142861577940218</v>
+        <v>1.14008590987798</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.14008590987798</v>
+        <v>1.136780278145755</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.138055788349837</v>
+        <v>1.135322211460367</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.136597721664448</v>
+        <v>1.135036773001111</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.134985643830404</v>
+        <v>1.134532454172181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.134532454172181</v>
+        <v>1.133710133626322</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.131212136367017</v>
+        <v>1.129936626162936</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.127267474143173</v>
+        <v>1.12673323547916</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.12673323547916</v>
+        <v>1.126468122798775</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.124223978948008</v>
+        <v>1.125991963939092</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.122211553539068</v>
+        <v>1.124223978948008</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.122152234292022</v>
+        <v>1.121807795075399</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.121807795075399</v>
+        <v>1.121191099129414</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2299,7 +2299,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.121191099129414</v>
+        <v>1.121019440862545</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.118490012827105</v>
+        <v>1.120936043334987</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.118146355157622</v>
+        <v>1.117379698026883</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2323,7 +2323,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.117771475009537</v>
+        <v>1.117214502623024</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.117379698026883</v>
+        <v>1.11687084495354</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2339,7 +2339,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.117005679671002</v>
+        <v>1.11573016946692</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2347,7 +2347,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.114723552598818</v>
+        <v>1.114410980713031</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2355,7 +2355,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.114410980713031</v>
+        <v>1.113448042394737</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.113738159607354</v>
+        <v>1.112462649403273</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.112659642291387</v>
+        <v>1.112092748867351</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.112371782001288</v>
+        <v>1.111005315282931</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2387,7 +2387,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.112280825487013</v>
+        <v>1.110776264770025</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.110776264770025</v>
+        <v>1.110075863633941</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.108971496112257</v>
+        <v>1.107695985908176</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.106265764157867</v>
+        <v>1.106855520464998</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.10425329276073</v>
+        <v>1.106265764157867</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2435,7 +2435,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.103790277252944</v>
+        <v>1.102514767048863</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2443,7 +2443,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.103768232113532</v>
+        <v>1.102492721909451</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.103070876522564</v>
+        <v>1.102247790256712</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2459,7 +2459,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.102247790256712</v>
+        <v>1.101795366318483</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.092593673555354</v>
+        <v>1.091135947607832</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2515,7 +2515,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.075925319105551</v>
+        <v>1.073195475991946</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.072641008506651</v>
+        <v>1.071183282559129</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.072306563501546</v>
+        <v>1.071031053297465</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.061515781057538</v>
+        <v>1.060240270853456</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2571,7 +2571,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.052304887783729</v>
+        <v>1.051029377579647</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2587,7 +2587,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.047168951479581</v>
+        <v>1.045711225532059</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.045951534984005</v>
+        <v>1.042992991256614</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2603,7 +2603,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.042992991256614</v>
+        <v>1.040167389366605</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.040167389366605</v>
+        <v>1.039975333925271</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.038772334395086</v>
+        <v>1.035333254828507</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.034312846665241</v>
+        <v>1.033913247903346</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.032569703383412</v>
+        <v>1.032266813930916</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2643,7 +2643,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.031379502484598</v>
+        <v>1.031697737812202</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.029995054196463</v>
+        <v>1.031111977435891</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.028296377267984</v>
+        <v>1.028257208097418</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.028257208097418</v>
+        <v>1.02744694641387</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.025092671518817</v>
+        <v>1.023634945571295</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2699,7 +2699,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.010862009447019</v>
+        <v>1.004829596481833</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.999508385806954</v>
+        <v>0.9926644361058614</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9880612685485768</v>
+        <v>0.9922347370466009</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9860743449583915</v>
+        <v>0.9895745082530614</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.985738702693177</v>
+        <v>0.9860743449583915</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9855754422604914</v>
+        <v>0.9764383161124857</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2747,7 +2747,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9791715522640891</v>
+        <v>0.9708378477572939</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2755,7 +2755,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9647584622697416</v>
+        <v>0.9682766791948905</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2763,7 +2763,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9639035013523252</v>
+        <v>0.9647584622697416</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.957789707634142</v>
+        <v>0.9565141974300606</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2779,7 +2779,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9560610228280857</v>
+        <v>0.9555911412266458</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2787,7 +2787,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9558751939458019</v>
+        <v>0.9546032968805642</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2795,7 +2795,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9555911412266458</v>
+        <v>0.9537493436056654</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9450785960220625</v>
+        <v>0.9443497330483015</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9057979929702076</v>
+        <v>0.9006797945242084</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9019553047282902</v>
+        <v>0.8941937156340294</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2915,7 +2915,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.8642259580846703</v>
+        <v>0.8715101978204536</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2923,7 +2923,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.8551742218914531</v>
+        <v>0.8642259580846703</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2931,7 +2931,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.8542722038130992</v>
+        <v>0.8555218027750566</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.8540640768275347</v>
+        <v>0.8519641377295226</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2955,7 +2955,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.8420812220941898</v>
+        <v>0.8373340237348732</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2963,7 +2963,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.832463314670711</v>
+        <v>0.8350076585154484</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.8316177710414441</v>
+        <v>0.832463314670711</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2979,7 +2979,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.8173256130455449</v>
+        <v>0.8253737626522897</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2987,7 +2987,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.8105199640743692</v>
+        <v>0.8116431175143135</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3003,7 +3003,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.8105093306662412</v>
+        <v>0.8105199640743692</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3059,7 +3059,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.7698619397553024</v>
+        <v>0.7712548037028584</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3067,7 +3067,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.7676987142612535</v>
+        <v>0.7698619397553024</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3075,7 +3075,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.7451853381089175</v>
+        <v>0.7676987142612535</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3099,7 +3099,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.7305782389899975</v>
+        <v>0.7291205130424756</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3107,7 +3107,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.7246795025036232</v>
+        <v>0.7254093174927627</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.715958293975087</v>
+        <v>0.7149378858118212</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.7019972114187256</v>
+        <v>0.6996020643295813</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.6999799932789386</v>
+        <v>0.6980901724126469</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.6938443389468056</v>
+        <v>0.6942087704336859</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.6805202197506885</v>
+        <v>0.6801846093160384</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.658960200091478</v>
+        <v>0.6595194327935681</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.650009742371406</v>
+        <v>0.6522084790089178</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.6485846312431565</v>
+        <v>0.6507493731088951</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.6257587521589487</v>
+        <v>0.6243010262114268</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5702279326305404</v>
+        <v>0.5748435850244895</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4861847206384957</v>
+        <v>0.4860756225453402</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3235,7 +3235,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4448522572559499</v>
+        <v>0.4432706551590919</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4395475307333843</v>
+        <v>0.4333383334822953</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4282476108624813</v>
+        <v>0.4215205865510097</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3267,7 +3267,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4150931126745714</v>
+        <v>0.4149850850384869</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3275,7 +3275,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.4108604992082141</v>
+        <v>0.4090064242448954</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3843534662632266</v>
+        <v>0.3819388760733551</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3726945490544937</v>
+        <v>0.3725411543632837</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3630490753453592</v>
+        <v>0.363250632072103</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3307,7 +3307,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3561659306663281</v>
+        <v>0.3575472675558704</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3540965404972227</v>
+        <v>0.3511521640632236</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3538980013866406</v>
+        <v>0.3470874504535753</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3331,7 +3331,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3463820181389934</v>
+        <v>0.345331870996872</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3347,7 +3347,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3406760818990766</v>
+        <v>0.3416589441652635</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3355,7 +3355,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3387401422358893</v>
+        <v>0.3406760818990766</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3363,7 +3363,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.322839769856891</v>
+        <v>0.3239638137134402</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3216066386520777</v>
+        <v>0.3238341963418201</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3197325579773489</v>
+        <v>0.3219021046563479</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3387,7 +3387,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3194744304407211</v>
+        <v>0.3193210357495111</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.318917956963074</v>
+        <v>0.3165473802052454</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3116788291995225</v>
+        <v>0.3131390711208502</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3110475678528759</v>
+        <v>0.3116788291995225</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3063536415304788</v>
+        <v>0.3091421073553349</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2973042034509246</v>
+        <v>0.3025991196082556</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3435,7 +3435,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2965535498882035</v>
+        <v>0.2973042034509246</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3443,7 +3443,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2948720691051423</v>
+        <v>0.2965535498882035</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3451,7 +3451,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2914941969337792</v>
+        <v>0.2948720691051423</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3459,7 +3459,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2891475081449062</v>
+        <v>0.2914941969337792</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2874104963088278</v>
+        <v>0.2889941134536966</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.286041469605625</v>
+        <v>0.2874104963088278</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2850984631724818</v>
+        <v>0.286041469605625</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2799307518775933</v>
+        <v>0.2850984631724818</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3507,7 +3507,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2786512480829684</v>
+        <v>0.2799307518775933</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2748934869020829</v>
+        <v>0.2781414527550907</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2741452960873387</v>
+        <v>0.2751570062448174</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2559138548252258</v>
+        <v>0.2577040947307117</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2370631108979866</v>
+        <v>0.2377720814746243</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2320184452116967</v>
+        <v>0.2331534056983946</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3595,7 +3595,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2304444745506256</v>
+        <v>0.2320184452116967</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3627,7 +3627,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2078059607623257</v>
+        <v>0.2067855525990603</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2055631804361528</v>
+        <v>0.205265956749052</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.205265956749052</v>
+        <v>0.2039496068931825</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1955304320931837</v>
+        <v>0.1925375060183079</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3675,7 +3675,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1938214503214875</v>
+        <v>0.1923767936987226</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1734836382881746</v>
+        <v>0.175711195977917</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1715838123108959</v>
+        <v>0.1720274680340554</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1707211402340778</v>
+        <v>0.1705677455428682</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3891,7 +3891,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1429038592128595</v>
+        <v>0.1430424823134786</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3899,7 +3899,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1417669721093973</v>
+        <v>0.1429038592128595</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3907,7 +3907,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1381739613445139</v>
+        <v>0.1410175915063705</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3915,7 +3915,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1380738382409308</v>
+        <v>0.1401306102634881</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3923,7 +3923,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1373695112147031</v>
+        <v>0.1381739613445139</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3931,7 +3931,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1353957438387199</v>
+        <v>0.1377737181929115</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3939,7 +3939,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1231525665831568</v>
+        <v>0.1205003538319041</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3947,7 +3947,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.115383609102617</v>
+        <v>0.1144329629884335</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3971,7 +3971,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1048364809909808</v>
+        <v>0.105975289455136</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3979,7 +3979,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1047681399286586</v>
+        <v>0.1032202330204306</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3987,7 +3987,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1032202330204306</v>
+        <v>0.1025229480742065</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4011,7 +4011,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.09767441818618461</v>
+        <v>0.09451601196655379</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.07065749290575951</v>
+        <v>0.06725613236154171</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4163,7 +4163,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.04322358801656589</v>
+        <v>0.04430385377333002</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4171,7 +4171,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.03829359121354092</v>
+        <v>0.03625673341091518</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4179,7 +4179,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.03625673341091518</v>
+        <v>0.03513518499391011</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4187,7 +4187,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.02842823534058203</v>
+        <v>0.02827484064937202</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4195,7 +4195,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.02840254417854293</v>
+        <v>0.02620712055454777</v>
       </c>
     </row>
     <row r="347" spans="1:2">
